--- a/Excel reader/First Contest/B2.xlsx
+++ b/Excel reader/First Contest/B2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>atharva286</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b058</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ayush2331</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b061</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>arnab264</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b047</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>anirudhsingh1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>181b035</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -518,16 +543,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ankitrathore</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>181b040</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -536,16 +566,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ashish2618</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>181b053</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -554,16 +589,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ashutosh944</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>181b056</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -572,16 +612,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>arpit1183</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b048</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -590,16 +635,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>aryan554</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>181b050</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
       <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -608,16 +658,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>ay33200</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b045</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -626,16 +681,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>arpit504</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>181b049</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -644,16 +704,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>ankit_kirar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>181b038</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -662,16 +727,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>jainatishay1999</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>181b059</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -680,34 +750,46 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>ayushm750</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>181b064</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D15" t="b">
-        <v>0</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>asmita166</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>181b057</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -716,16 +798,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>shrivastavaaniket1999</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>181b033</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -734,16 +821,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>ayush1464</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>181b063</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -752,16 +844,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>aryan257</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>181b052</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>6</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -770,16 +867,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>anshika283</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>181b041</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -788,16 +890,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>lightfrosn</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>181b034</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>6</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -806,16 +913,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>anshika284</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>181b042</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -824,16 +936,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>archit162</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>181b046</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>6</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>-</t>
         </is>
